--- a/biology/Zoologie/Gibbon_à_bonnet/Gibbon_à_bonnet.xlsx
+++ b/biology/Zoologie/Gibbon_à_bonnet/Gibbon_à_bonnet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gibbon_%C3%A0_bonnet</t>
+          <t>Gibbon_à_bonnet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylobates pileatus
 Le gibbon à bonnet (Hylobates pileatus), aussi parfois appelé gibbon à coiffe, est un singe de la famille des Hylobatidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gibbon_%C3%A0_bonnet</t>
+          <t>Gibbon_à_bonnet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gibbon à bonnet mesure 47 cm (corps et tête), n'a pas de queue et pèse 4-7 kg[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gibbon à bonnet mesure 47 cm (corps et tête), n'a pas de queue et pèse 4-7 kg.
 Le gibbon à bonnet présente un dimorphisme sexuel dans la couleur de sa fourrure : les mâles sont entièrement noirs, tandis que les femelles ont un pelage blanc-gris avec seulement le ventre et la tête noires. L'anneau de fourrure blanche, souvent hirsute, autour de la tête est commune aux deux sexes.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gibbon_%C3%A0_bonnet</t>
+          <t>Gibbon_à_bonnet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,15 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mode de vie du gibbon à bonnet est semblable à celui des autres gibbons : diurne et arboricole.
 Il vit en couple monogame.
 Il se déplace par brachiation à travers les arbres grâce ses longs bras.
 Il mange principalement des fruits (75 %), des feuilles et jeunes pousses (20 %) et des petits animaux (insectes...) (5 %).
-Sa reproduction n'est pas bien connue, mais est probablement semblable à celle des autres gibbons. Après 240 jours de gestation la femelle gibbon à bonnet accouche d'un petit gibbon[2].
+Sa reproduction n'est pas bien connue, mais est probablement semblable à celle des autres gibbons. Après 240 jours de gestation la femelle gibbon à bonnet accouche d'un petit gibbon.
 </t>
         </is>
       </c>
